--- a/GATEWAY/A1#111#CAVALLAROXX/CAVALLARO_GIUSEPPE/AUTOFSE/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#CAVALLAROXX/CAVALLARO_GIUSEPPE/AUTOFSE/1.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="202">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1662,7 +1662,7 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1677,32 +1677,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1715,12 +1715,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1749,7 +1749,7 @@
   </sheetPr>
   <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2826,12 +2826,12 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="O19" activeCellId="0" sqref="O19"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3047,7 +3047,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="15"/>
     </row>
-    <row r="9" s="26" customFormat="true" ht="72.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="26" customFormat="true" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
         <v>24</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="n">
         <v>32</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="n">
         <v>40</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="n">
         <v>48</v>
       </c>
@@ -3260,11 +3260,17 @@
       <c r="E12" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="30" t="n">
+        <v>45817</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="H12" s="31"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
+      <c r="J12" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33" t="s">
@@ -3299,7 +3305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="n">
         <v>152</v>
       </c>
@@ -3362,7 +3368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="n">
         <v>154</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="n">
         <v>155</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="n">
         <v>156</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="n">
         <v>159</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="n">
         <v>160</v>
       </c>
@@ -3677,7 +3683,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="n">
         <v>161</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="n">
         <v>162</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="n">
         <v>163</v>
       </c>
@@ -3844,7 +3850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="n">
         <v>164</v>
       </c>
@@ -3885,7 +3891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="n">
         <v>165</v>
       </c>
@@ -3926,7 +3932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="n">
         <v>166</v>
       </c>
@@ -3967,7 +3973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="n">
         <v>167</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="n">
         <v>168</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="n">
         <v>169</v>
       </c>
@@ -4112,7 +4118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="n">
         <v>448</v>
       </c>
@@ -4161,7 +4167,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="n">
         <v>449</v>
       </c>
@@ -4204,7 +4210,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="n">
         <v>461</v>
       </c>
@@ -4245,7 +4251,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="n">
         <v>468</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="n">
         <v>475</v>
       </c>
@@ -8591,11 +8597,11 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8655,7 +8661,7 @@
   </sheetPr>
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -8762,7 +8768,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
         <v>187</v>
       </c>
@@ -8776,7 +8782,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="42" t="s">
         <v>48</v>
       </c>
@@ -8790,7 +8796,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
         <v>192</v>
       </c>
@@ -8804,7 +8810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="42" t="s">
         <v>195</v>
       </c>
@@ -9805,7 +9811,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/GATEWAY/A1#111#CAVALLAROXX/CAVALLARO_GIUSEPPE/AUTOFSE/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#CAVALLAROXX/CAVALLARO_GIUSEPPE/AUTOFSE/1.0/report-checklist.xlsx
@@ -663,13 +663,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-09T11:55:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0cdaeaefb66cd7e56cb576724e4b3c0d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.7c02bf2f5b5f72ce9aebf3dec6c0a9b2878f8f5a9239fce7bd9b58e700f8c839.94f2c6e28c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-06-16T13:24:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9a9ab1cce022075ed268b589fd64073d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.7c02bf2f5b5f72ce9aebf3dec6c0a9b2878f8f5a9239fce7bd9b58e700f8c839.c4ee2ee44b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">OK</t>
@@ -1677,32 +1677,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1715,12 +1715,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -2827,11 +2827,11 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3047,7 +3047,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="15"/>
     </row>
-    <row r="9" s="26" customFormat="true" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="26" customFormat="true" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
         <v>24</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="n">
         <v>32</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="n">
         <v>40</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="n">
         <v>48</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="n">
         <v>152</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="n">
         <v>154</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="n">
         <v>155</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="n">
         <v>156</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="n">
         <v>159</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="n">
         <v>160</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="n">
         <v>161</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="n">
         <v>162</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="n">
         <v>163</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="n">
         <v>164</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="n">
         <v>165</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="n">
         <v>166</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="n">
         <v>167</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="n">
         <v>168</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="n">
         <v>169</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="n">
         <v>448</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>137</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="G28" s="31" t="s">
         <v>138</v>
@@ -4167,7 +4167,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="n">
         <v>449</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="n">
         <v>461</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="n">
         <v>468</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="n">
         <v>475</v>
       </c>
@@ -8601,7 +8601,7 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8768,7 +8768,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
         <v>187</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="42" t="s">
         <v>48</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
         <v>192</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="42" t="s">
         <v>195</v>
       </c>

--- a/GATEWAY/A1#111#CAVALLAROXX/CAVALLARO_GIUSEPPE/AUTOFSE/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#CAVALLAROXX/CAVALLARO_GIUSEPPE/AUTOFSE/1.0/report-checklist.xlsx
@@ -580,7 +580,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
+    <t xml:space="preserve">Campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT17_KO</t>
@@ -609,6 +609,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT19_KO</t>
   </si>
   <si>
@@ -637,6 +640,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">Campo valorizzabile tramite selezione da un set di valori ammessi</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT23_KO</t>
   </si>
   <si>
@@ -663,13 +669,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-16T13:24:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9a9ab1cce022075ed268b589fd64073d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.7c02bf2f5b5f72ce9aebf3dec6c0a9b2878f8f5a9239fce7bd9b58e700f8c839.c4ee2ee44b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-06-19T16:07:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad7ed1a2dc1279e847036497507cd108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.7c02bf2f5b5f72ce9aebf3dec6c0a9b2878f8f5a9239fce7bd9b58e700f8c839.062cafe384^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">OK</t>
@@ -740,12 +746,6 @@
   </si>
   <si>
     <t xml:space="preserve">Campo valorizzato di default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo valorizzabile tramite selezione da un set di valori ammessi</t>
   </si>
   <si>
     <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
@@ -1666,7 +1666,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="1" width="8.82"/>
@@ -1753,7 +1753,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="194.18"/>
@@ -2827,21 +2827,23 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I28" activeCellId="0" sqref="I28"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="104.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="33.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="33.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="34.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="33.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="1" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.18"/>
@@ -3874,7 +3876,7 @@
         <v>55</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
@@ -3902,10 +3904,10 @@
         <v>48</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -3915,7 +3917,7 @@
         <v>55</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
@@ -3943,10 +3945,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
@@ -3956,7 +3958,7 @@
         <v>55</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
@@ -3984,10 +3986,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
@@ -3997,7 +3999,7 @@
         <v>55</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
@@ -4025,10 +4027,10 @@
         <v>48</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
@@ -4038,7 +4040,7 @@
         <v>55</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
@@ -4066,22 +4068,22 @@
         <v>48</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F27" s="30" t="n">
         <v>45817</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>54</v>
@@ -4095,7 +4097,7 @@
         <v>55</v>
       </c>
       <c r="O27" s="33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P27" s="33" t="s">
         <v>54</v>
@@ -4129,22 +4131,22 @@
         <v>48</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>45824</v>
+        <v>45827</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>54</v>
@@ -4164,7 +4166,7 @@
       <c r="U28" s="34"/>
       <c r="V28" s="35"/>
       <c r="W28" s="33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4178,10 +4180,10 @@
         <v>48</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -4191,10 +4193,10 @@
         <v>55</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
@@ -4207,7 +4209,7 @@
       <c r="U29" s="34"/>
       <c r="V29" s="35"/>
       <c r="W29" s="33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4221,10 +4223,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
@@ -4234,7 +4236,7 @@
         <v>55</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L30" s="27"/>
       <c r="M30" s="33"/>
@@ -4262,22 +4264,22 @@
         <v>48</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F31" s="30" t="n">
         <v>45817</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>54</v>
@@ -4291,7 +4293,7 @@
         <v>55</v>
       </c>
       <c r="O31" s="33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P31" s="33" t="s">
         <v>54</v>
@@ -4325,22 +4327,22 @@
         <v>48</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F32" s="30" t="n">
         <v>45817</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>54</v>
@@ -4354,7 +4356,7 @@
         <v>55</v>
       </c>
       <c r="O32" s="33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P32" s="33" t="s">
         <v>54</v>
@@ -8601,36 +8603,36 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8640,7 +8642,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -8667,7 +8669,7 @@
       <selection pane="bottomLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.82"/>
@@ -9815,7 +9817,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.18"/>
